--- a/datos_entrada/Pedidos_Externos.xlsx
+++ b/datos_entrada/Pedidos_Externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piero\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piero\Downloads\Optimizacion_Programacion\datos_entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A33DA8-0766-4911-A095-7F9106A6E8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4AA70-92C6-4649-A28F-BAD36BF6A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="302">
   <si>
     <t>P600</t>
   </si>
@@ -521,12 +521,6 @@
   </si>
   <si>
     <t>Crédito días de plazo - 10</t>
-  </si>
-  <si>
-    <t>888700</t>
-  </si>
-  <si>
-    <t>11977273086</t>
   </si>
   <si>
     <t>888685</t>
@@ -1291,10 +1285,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1328,82 +1322,82 @@
   <sheetData>
     <row r="1" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -4777,19 +4771,19 @@
         <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H44" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I44" s="3">
         <v>44488</v>
@@ -4801,25 +4795,25 @@
         <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O44" t="s">
         <v>22</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q44" t="s">
         <v>13</v>
       </c>
       <c r="R44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S44" t="s">
         <v>15</v>
@@ -4843,7 +4837,7 @@
         <v>44488</v>
       </c>
       <c r="Z44" s="4">
-        <v>0.41468749999999999</v>
+        <v>0.41034722222221998</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4854,22 +4848,22 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H45" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>44488</v>
@@ -4887,19 +4881,19 @@
         <v>9</v>
       </c>
       <c r="N45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O45" t="s">
         <v>22</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q45" t="s">
         <v>13</v>
       </c>
       <c r="R45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S45" t="s">
         <v>15</v>
@@ -4923,7 +4917,7 @@
         <v>44488</v>
       </c>
       <c r="Z45" s="4">
-        <v>0.41034722222221998</v>
+        <v>0.40966435185185002</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4937,19 +4931,19 @@
         <v>174</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I46" s="3">
         <v>44488</v>
@@ -4961,25 +4955,25 @@
         <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O46" t="s">
         <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q46" t="s">
         <v>13</v>
       </c>
       <c r="R46" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="S46" t="s">
         <v>15</v>
@@ -5003,7 +4997,7 @@
         <v>44488</v>
       </c>
       <c r="Z46" s="4">
-        <v>0.40966435185185002</v>
+        <v>0.39885416666667001</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -5014,22 +5008,22 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H47" s="2">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="I47" s="3">
         <v>44488</v>
@@ -5047,13 +5041,13 @@
         <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O47" t="s">
         <v>22</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q47" t="s">
         <v>13</v>
@@ -5083,7 +5077,7 @@
         <v>44488</v>
       </c>
       <c r="Z47" s="4">
-        <v>0.39885416666667001</v>
+        <v>0.39802083333332999</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -5094,22 +5088,22 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="H48" s="2">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>44488</v>
@@ -5127,13 +5121,13 @@
         <v>31</v>
       </c>
       <c r="N48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O48" t="s">
         <v>22</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q48" t="s">
         <v>13</v>
@@ -5177,19 +5171,19 @@
         <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H49" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>44488</v>
@@ -5207,13 +5201,13 @@
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s">
         <v>22</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q49" t="s">
         <v>13</v>
@@ -5243,7 +5237,7 @@
         <v>44488</v>
       </c>
       <c r="Z49" s="4">
-        <v>0.39802083333332999</v>
+        <v>0.39597222222222</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -5254,22 +5248,22 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H50" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I50" s="3">
         <v>44488</v>
@@ -5281,25 +5275,25 @@
         <v>7</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O50" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q50" t="s">
         <v>13</v>
       </c>
       <c r="R50" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="S50" t="s">
         <v>15</v>
@@ -5323,7 +5317,7 @@
         <v>44488</v>
       </c>
       <c r="Z50" s="4">
-        <v>0.39597222222222</v>
+        <v>0.39364583333332998</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
@@ -5334,19 +5328,19 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H51" s="2">
         <v>2000</v>
@@ -5367,13 +5361,13 @@
         <v>128</v>
       </c>
       <c r="N51" t="s">
+        <v>186</v>
+      </c>
+      <c r="O51" t="s">
+        <v>187</v>
+      </c>
+      <c r="P51" t="s">
         <v>188</v>
-      </c>
-      <c r="O51" t="s">
-        <v>189</v>
-      </c>
-      <c r="P51" t="s">
-        <v>190</v>
       </c>
       <c r="Q51" t="s">
         <v>13</v>
@@ -5414,22 +5408,22 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="H52" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I52" s="3">
         <v>44488</v>
@@ -5441,25 +5435,25 @@
         <v>7</v>
       </c>
       <c r="L52" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O52" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="Q52" t="s">
         <v>13</v>
       </c>
       <c r="R52" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="S52" t="s">
         <v>15</v>
@@ -5483,7 +5477,7 @@
         <v>44488</v>
       </c>
       <c r="Z52" s="4">
-        <v>0.39364583333332998</v>
+        <v>0.37251157407406998</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -5494,22 +5488,22 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="H53" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I53" s="3">
         <v>44488</v>
@@ -5527,13 +5521,13 @@
         <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O53" t="s">
         <v>22</v>
       </c>
       <c r="P53" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="Q53" t="s">
         <v>13</v>
@@ -5563,7 +5557,7 @@
         <v>44488</v>
       </c>
       <c r="Z53" s="4">
-        <v>0.37251157407406998</v>
+        <v>0.36420138888888998</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -5574,22 +5568,22 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="H54" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I54" s="3">
         <v>44488</v>
@@ -5601,19 +5595,19 @@
         <v>7</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M54" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O54" t="s">
         <v>22</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q54" t="s">
         <v>13</v>
@@ -5643,7 +5637,7 @@
         <v>44488</v>
       </c>
       <c r="Z54" s="4">
-        <v>0.36420138888888998</v>
+        <v>0.36306712962963</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -5654,19 +5648,19 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2">
         <v>2000</v>
@@ -5687,13 +5681,13 @@
         <v>9</v>
       </c>
       <c r="N55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O55" t="s">
         <v>22</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q55" t="s">
         <v>13</v>
@@ -5737,19 +5731,19 @@
         <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H56" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="I56" s="3">
         <v>44488</v>
@@ -5761,25 +5755,25 @@
         <v>7</v>
       </c>
       <c r="L56" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="M56" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="N56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O56" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q56" t="s">
         <v>13</v>
       </c>
       <c r="R56" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="S56" t="s">
         <v>15</v>
@@ -5803,7 +5797,7 @@
         <v>44488</v>
       </c>
       <c r="Z56" s="4">
-        <v>0.36306712962963</v>
+        <v>0.31657407407407001</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -5814,22 +5808,22 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="H57" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>44488</v>
@@ -5841,25 +5835,25 @@
         <v>7</v>
       </c>
       <c r="L57" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="M57" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="N57" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O57" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q57" t="s">
         <v>13</v>
       </c>
       <c r="R57" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="S57" t="s">
         <v>15</v>
@@ -5883,33 +5877,33 @@
         <v>44488</v>
       </c>
       <c r="Z57" s="4">
-        <v>0.36306712962963</v>
+        <v>0.31565972222222</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="H58" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>44488</v>
@@ -5921,25 +5915,25 @@
         <v>7</v>
       </c>
       <c r="L58" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="M58" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="N58" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O58" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q58" t="s">
         <v>13</v>
       </c>
       <c r="R58" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="S58" t="s">
         <v>15</v>
@@ -5963,33 +5957,33 @@
         <v>44488</v>
       </c>
       <c r="Z58" s="4">
-        <v>0.31657407407407001</v>
+        <v>0.66358796296295997</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="H59" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>44488</v>
@@ -6001,25 +5995,25 @@
         <v>7</v>
       </c>
       <c r="L59" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="M59" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="N59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O59" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q59" t="s">
         <v>13</v>
       </c>
       <c r="R59" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="S59" t="s">
         <v>15</v>
@@ -6043,30 +6037,30 @@
         <v>44488</v>
       </c>
       <c r="Z59" s="4">
-        <v>0.31565972222222</v>
+        <v>0.66358796296295997</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
         <v>210</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" t="s">
-        <v>212</v>
-      </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H60" s="2">
         <v>1000</v>
@@ -6087,19 +6081,19 @@
         <v>9</v>
       </c>
       <c r="N60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O60" t="s">
         <v>22</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q60" t="s">
         <v>13</v>
       </c>
       <c r="R60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S60" t="s">
         <v>15</v>
@@ -6128,28 +6122,28 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H61" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>44488</v>
@@ -6161,25 +6155,25 @@
         <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="N61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O61" t="s">
         <v>22</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q61" t="s">
         <v>13</v>
       </c>
       <c r="R61" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="S61" t="s">
         <v>15</v>
@@ -6203,30 +6197,30 @@
         <v>44488</v>
       </c>
       <c r="Z61" s="4">
-        <v>0.66358796296295997</v>
+        <v>0.62659722222222003</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="H62" s="2">
         <v>1000</v>
@@ -6241,25 +6235,25 @@
         <v>7</v>
       </c>
       <c r="L62" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="N62" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s">
         <v>22</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q62" t="s">
         <v>13</v>
       </c>
       <c r="R62" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="S62" t="s">
         <v>15</v>
@@ -6283,30 +6277,30 @@
         <v>44488</v>
       </c>
       <c r="Z62" s="4">
-        <v>0.66358796296295997</v>
+        <v>0.62453703703704</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H63" s="2">
         <v>500</v>
@@ -6327,19 +6321,19 @@
         <v>128</v>
       </c>
       <c r="N63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O63" t="s">
         <v>22</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q63" t="s">
         <v>13</v>
       </c>
       <c r="R63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S63" t="s">
         <v>15</v>
@@ -6363,12 +6357,12 @@
         <v>44488</v>
       </c>
       <c r="Z63" s="4">
-        <v>0.62659722222222003</v>
+        <v>0.62453703703704</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -6377,19 +6371,19 @@
         <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="H64" s="2">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="I64" s="3">
         <v>44488</v>
@@ -6401,25 +6395,25 @@
         <v>7</v>
       </c>
       <c r="L64" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M64" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O64" t="s">
         <v>22</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q64" t="s">
         <v>13</v>
       </c>
       <c r="R64" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="S64" t="s">
         <v>15</v>
@@ -6443,30 +6437,30 @@
         <v>44488</v>
       </c>
       <c r="Z64" s="4">
-        <v>0.62453703703704</v>
+        <v>0.58560185185184999</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H65" s="2">
         <v>500</v>
@@ -6487,19 +6481,19 @@
         <v>128</v>
       </c>
       <c r="N65" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O65" t="s">
         <v>22</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q65" t="s">
         <v>13</v>
       </c>
       <c r="R65" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="S65" t="s">
         <v>15</v>
@@ -6523,33 +6517,33 @@
         <v>44488</v>
       </c>
       <c r="Z65" s="4">
-        <v>0.62453703703704</v>
+        <v>0.39881944444444001</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="H66" s="2">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>44488</v>
@@ -6561,25 +6555,25 @@
         <v>7</v>
       </c>
       <c r="L66" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M66" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O66" t="s">
         <v>22</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q66" t="s">
         <v>13</v>
       </c>
       <c r="R66" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S66" t="s">
         <v>15</v>
@@ -6603,33 +6597,33 @@
         <v>44488</v>
       </c>
       <c r="Z66" s="4">
-        <v>0.58560185185184999</v>
+        <v>0.39881944444444001</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H67" s="2">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I67" s="3">
         <v>44488</v>
@@ -6641,25 +6635,25 @@
         <v>7</v>
       </c>
       <c r="L67" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M67" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O67" t="s">
         <v>22</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q67" t="s">
         <v>13</v>
       </c>
       <c r="R67" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="S67" t="s">
         <v>15</v>
@@ -6683,33 +6677,33 @@
         <v>44488</v>
       </c>
       <c r="Z67" s="4">
-        <v>0.39881944444444001</v>
+        <v>0.39853009259258998</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H68" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I68" s="3">
         <v>44488</v>
@@ -6727,19 +6721,19 @@
         <v>128</v>
       </c>
       <c r="N68" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O68" t="s">
         <v>22</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q68" t="s">
         <v>13</v>
       </c>
       <c r="R68" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="S68" t="s">
         <v>15</v>
@@ -6763,33 +6757,33 @@
         <v>44488</v>
       </c>
       <c r="Z68" s="4">
-        <v>0.39881944444444001</v>
+        <v>0.39841435185184998</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H69" s="2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I69" s="3">
         <v>44488</v>
@@ -6801,25 +6795,25 @@
         <v>7</v>
       </c>
       <c r="L69" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M69" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N69" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O69" t="s">
         <v>22</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q69" t="s">
         <v>13</v>
       </c>
       <c r="R69" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="S69" t="s">
         <v>15</v>
@@ -6843,33 +6837,33 @@
         <v>44488</v>
       </c>
       <c r="Z69" s="4">
-        <v>0.39853009259258998</v>
+        <v>0.39841435185184998</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H70" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I70" s="3">
         <v>44488</v>
@@ -6887,13 +6881,13 @@
         <v>128</v>
       </c>
       <c r="N70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O70" t="s">
         <v>22</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q70" t="s">
         <v>13</v>
@@ -6928,28 +6922,28 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H71" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I71" s="3">
         <v>44488</v>
@@ -6967,19 +6961,19 @@
         <v>128</v>
       </c>
       <c r="N71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O71" t="s">
         <v>22</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Q71" t="s">
         <v>13</v>
       </c>
       <c r="R71" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="S71" t="s">
         <v>15</v>
@@ -7003,33 +6997,33 @@
         <v>44488</v>
       </c>
       <c r="Z71" s="4">
-        <v>0.39841435185184998</v>
+        <v>0.39615740740741001</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="H72" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I72" s="3">
         <v>44488</v>
@@ -7041,25 +7035,25 @@
         <v>7</v>
       </c>
       <c r="L72" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M72" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N72" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O72" t="s">
         <v>22</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q72" t="s">
         <v>13</v>
       </c>
       <c r="R72" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="S72" t="s">
         <v>15</v>
@@ -7083,12 +7077,12 @@
         <v>44488</v>
       </c>
       <c r="Z72" s="4">
-        <v>0.39841435185184998</v>
+        <v>0.34984953703704003</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -7097,19 +7091,19 @@
         <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H73" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I73" s="3">
         <v>44488</v>
@@ -7121,25 +7115,25 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M73" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O73" t="s">
         <v>22</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q73" t="s">
         <v>13</v>
       </c>
       <c r="R73" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S73" t="s">
         <v>15</v>
@@ -7163,30 +7157,30 @@
         <v>44488</v>
       </c>
       <c r="Z73" s="4">
-        <v>0.39615740740741001</v>
+        <v>0.34984953703704003</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H74" s="2">
         <v>1000</v>
@@ -7207,13 +7201,13 @@
         <v>31</v>
       </c>
       <c r="N74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O74" t="s">
         <v>22</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q74" t="s">
         <v>13</v>
@@ -7243,33 +7237,33 @@
         <v>44488</v>
       </c>
       <c r="Z74" s="4">
-        <v>0.34984953703704003</v>
+        <v>0.34976851851851998</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H75" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I75" s="3">
         <v>44488</v>
@@ -7281,25 +7275,25 @@
         <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M75" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N75" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O75" t="s">
         <v>22</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q75" t="s">
         <v>13</v>
       </c>
       <c r="R75" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="S75" t="s">
         <v>15</v>
@@ -7323,33 +7317,33 @@
         <v>44488</v>
       </c>
       <c r="Z75" s="4">
-        <v>0.34984953703704003</v>
+        <v>0.32221064814814998</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H76" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I76" s="3">
         <v>44488</v>
@@ -7361,25 +7355,25 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M76" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N76" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O76" t="s">
         <v>22</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q76" t="s">
         <v>13</v>
       </c>
       <c r="R76" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="S76" t="s">
         <v>15</v>
@@ -7403,33 +7397,33 @@
         <v>44488</v>
       </c>
       <c r="Z76" s="4">
-        <v>0.34976851851851998</v>
+        <v>0.31954861111110999</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H77" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I77" s="3">
         <v>44488</v>
@@ -7447,13 +7441,13 @@
         <v>128</v>
       </c>
       <c r="N77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O77" t="s">
         <v>22</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q77" t="s">
         <v>13</v>
@@ -7483,33 +7477,33 @@
         <v>44488</v>
       </c>
       <c r="Z77" s="4">
-        <v>0.32221064814814998</v>
+        <v>0.31954861111110999</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H78" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I78" s="3">
         <v>44488</v>
@@ -7527,13 +7521,13 @@
         <v>128</v>
       </c>
       <c r="N78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O78" t="s">
         <v>22</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q78" t="s">
         <v>13</v>
@@ -7568,7 +7562,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -7577,19 +7571,19 @@
         <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="H79" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I79" s="3">
         <v>44488</v>
@@ -7601,25 +7595,25 @@
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M79" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O79" t="s">
         <v>22</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q79" t="s">
         <v>13</v>
       </c>
       <c r="R79" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="S79" t="s">
         <v>15</v>
@@ -7643,33 +7637,33 @@
         <v>44488</v>
       </c>
       <c r="Z79" s="4">
-        <v>0.31954861111110999</v>
+        <v>0.29793981481481002</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H80" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I80" s="3">
         <v>44488</v>
@@ -7681,25 +7675,25 @@
         <v>7</v>
       </c>
       <c r="L80" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M80" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="N80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O80" t="s">
         <v>22</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q80" t="s">
         <v>13</v>
       </c>
       <c r="R80" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="S80" t="s">
         <v>15</v>
@@ -7723,36 +7717,36 @@
         <v>44488</v>
       </c>
       <c r="Z80" s="4">
-        <v>0.31954861111110999</v>
+        <v>0.29589120370369998</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="H81" s="2">
         <v>500</v>
       </c>
       <c r="I81" s="3">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="J81" s="3">
         <v>44489</v>
@@ -7767,19 +7761,19 @@
         <v>31</v>
       </c>
       <c r="N81" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O81" t="s">
         <v>22</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q81" t="s">
         <v>13</v>
       </c>
       <c r="R81" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="S81" t="s">
         <v>15</v>
@@ -7800,39 +7794,39 @@
         <v>16</v>
       </c>
       <c r="Y81" s="3">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="Z81" s="4">
-        <v>0.29793981481481002</v>
+        <v>0.77819444444443997</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="H82" s="2">
         <v>500</v>
       </c>
       <c r="I82" s="3">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="J82" s="3">
         <v>44489</v>
@@ -7847,19 +7841,19 @@
         <v>31</v>
       </c>
       <c r="N82" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O82" t="s">
         <v>22</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q82" t="s">
         <v>13</v>
       </c>
       <c r="R82" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="S82" t="s">
         <v>15</v>
@@ -7880,36 +7874,36 @@
         <v>16</v>
       </c>
       <c r="Y82" s="3">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="Z82" s="4">
-        <v>0.29589120370369998</v>
+        <v>0.77767361111111</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H83" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>44487</v>
@@ -7927,19 +7921,19 @@
         <v>31</v>
       </c>
       <c r="N83" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O83" t="s">
         <v>22</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q83" t="s">
         <v>13</v>
       </c>
       <c r="R83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S83" t="s">
         <v>15</v>
@@ -7963,21 +7957,21 @@
         <v>44487</v>
       </c>
       <c r="Z83" s="4">
-        <v>0.77819444444443997</v>
+        <v>0.77709490740741005</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -7989,7 +7983,7 @@
         <v>102</v>
       </c>
       <c r="H84" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I84" s="3">
         <v>44487</v>
@@ -8001,25 +7995,25 @@
         <v>7</v>
       </c>
       <c r="L84" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M84" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N84" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O84" t="s">
         <v>22</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q84" t="s">
         <v>13</v>
       </c>
       <c r="R84" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="S84" t="s">
         <v>15</v>
@@ -8043,33 +8037,33 @@
         <v>44487</v>
       </c>
       <c r="Z84" s="4">
-        <v>0.77767361111111</v>
+        <v>0.75239583333333004</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H85" s="2">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I85" s="3">
         <v>44487</v>
@@ -8081,25 +8075,25 @@
         <v>7</v>
       </c>
       <c r="L85" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="M85" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="N85" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O85" t="s">
         <v>22</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q85" t="s">
         <v>13</v>
       </c>
       <c r="R85" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="S85" t="s">
         <v>15</v>
@@ -8123,33 +8117,33 @@
         <v>44487</v>
       </c>
       <c r="Z85" s="4">
-        <v>0.77709490740741005</v>
+        <v>0.75142361111111</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="H86" s="2">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="I86" s="3">
         <v>44487</v>
@@ -8161,19 +8155,19 @@
         <v>7</v>
       </c>
       <c r="L86" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="M86" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="N86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O86" t="s">
         <v>22</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q86" t="s">
         <v>13</v>
@@ -8203,166 +8197,6 @@
         <v>44487</v>
       </c>
       <c r="Z86" s="4">
-        <v>0.75239583333333004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>210</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" t="s">
-        <v>269</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>69</v>
-      </c>
-      <c r="G87" t="s">
-        <v>70</v>
-      </c>
-      <c r="H87" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I87" s="3">
-        <v>44487</v>
-      </c>
-      <c r="J87" s="3">
-        <v>44489</v>
-      </c>
-      <c r="K87" t="s">
-        <v>7</v>
-      </c>
-      <c r="L87" t="s">
-        <v>127</v>
-      </c>
-      <c r="M87" t="s">
-        <v>128</v>
-      </c>
-      <c r="N87" t="s">
-        <v>273</v>
-      </c>
-      <c r="O87" t="s">
-        <v>22</v>
-      </c>
-      <c r="P87" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>13</v>
-      </c>
-      <c r="R87" t="s">
-        <v>35</v>
-      </c>
-      <c r="S87" t="s">
-        <v>15</v>
-      </c>
-      <c r="T87" t="s">
-        <v>15</v>
-      </c>
-      <c r="U87" t="s">
-        <v>15</v>
-      </c>
-      <c r="V87" t="s">
-        <v>15</v>
-      </c>
-      <c r="W87" t="s">
-        <v>15</v>
-      </c>
-      <c r="X87" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y87" s="3">
-        <v>44487</v>
-      </c>
-      <c r="Z87" s="4">
-        <v>0.75142361111111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>274</v>
-      </c>
-      <c r="D88" t="s">
-        <v>275</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>276</v>
-      </c>
-      <c r="G88" t="s">
-        <v>277</v>
-      </c>
-      <c r="H88" s="2">
-        <v>6500</v>
-      </c>
-      <c r="I88" s="3">
-        <v>44487</v>
-      </c>
-      <c r="J88" s="3">
-        <v>44489</v>
-      </c>
-      <c r="K88" t="s">
-        <v>7</v>
-      </c>
-      <c r="L88" t="s">
-        <v>8</v>
-      </c>
-      <c r="M88" t="s">
-        <v>9</v>
-      </c>
-      <c r="N88" t="s">
-        <v>278</v>
-      </c>
-      <c r="O88" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>13</v>
-      </c>
-      <c r="R88" t="s">
-        <v>35</v>
-      </c>
-      <c r="S88" t="s">
-        <v>15</v>
-      </c>
-      <c r="T88" t="s">
-        <v>15</v>
-      </c>
-      <c r="U88" t="s">
-        <v>15</v>
-      </c>
-      <c r="V88" t="s">
-        <v>15</v>
-      </c>
-      <c r="W88" t="s">
-        <v>15</v>
-      </c>
-      <c r="X88" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>44487</v>
-      </c>
-      <c r="Z88" s="4">
         <v>0.62854166666667</v>
       </c>
     </row>
